--- a/Code/Results/Cases/Case_5_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022896818592952</v>
+        <v>1.075347494238983</v>
       </c>
       <c r="D2">
-        <v>1.038491900466582</v>
+        <v>1.074379477558459</v>
       </c>
       <c r="E2">
-        <v>1.034535610651109</v>
+        <v>1.078507792967299</v>
       </c>
       <c r="F2">
-        <v>1.043442017631603</v>
+        <v>1.087576891009372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049773975821319</v>
+        <v>1.046326922860092</v>
       </c>
       <c r="J2">
-        <v>1.044413610928613</v>
+        <v>1.080252411879709</v>
       </c>
       <c r="K2">
-        <v>1.049439815026934</v>
+        <v>1.077068845344237</v>
       </c>
       <c r="L2">
-        <v>1.045533896514127</v>
+        <v>1.081186282913323</v>
       </c>
       <c r="M2">
-        <v>1.054327578293612</v>
+        <v>1.090231797435664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031437866986056</v>
+        <v>1.077035760507893</v>
       </c>
       <c r="D3">
-        <v>1.045206738441855</v>
+        <v>1.075711047986396</v>
       </c>
       <c r="E3">
-        <v>1.041865056340946</v>
+        <v>1.079997171536834</v>
       </c>
       <c r="F3">
-        <v>1.050991504934941</v>
+        <v>1.089111649988354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052205315212396</v>
+        <v>1.046708783593401</v>
       </c>
       <c r="J3">
-        <v>1.051106708394793</v>
+        <v>1.081596655948686</v>
       </c>
       <c r="K3">
-        <v>1.055292106883698</v>
+        <v>1.078216266905025</v>
       </c>
       <c r="L3">
-        <v>1.051988886712435</v>
+        <v>1.082491921752737</v>
       </c>
       <c r="M3">
-        <v>1.061011004860698</v>
+        <v>1.091584432683649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036787946715083</v>
+        <v>1.07812636344143</v>
       </c>
       <c r="D4">
-        <v>1.049414661487302</v>
+        <v>1.076570790845498</v>
       </c>
       <c r="E4">
-        <v>1.046461796285732</v>
+        <v>1.080959382884945</v>
       </c>
       <c r="F4">
-        <v>1.0557264948086</v>
+        <v>1.090103217238498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053714702141129</v>
+        <v>1.046953668928187</v>
       </c>
       <c r="J4">
-        <v>1.055295233584615</v>
+        <v>1.08246427778631</v>
       </c>
       <c r="K4">
-        <v>1.058951146335661</v>
+        <v>1.078956307803063</v>
       </c>
       <c r="L4">
-        <v>1.056030031910316</v>
+        <v>1.083334725729606</v>
       </c>
       <c r="M4">
-        <v>1.065195840072904</v>
+        <v>1.092457643699512</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038997457536984</v>
+        <v>1.07858442836955</v>
       </c>
       <c r="D5">
-        <v>1.051152772509691</v>
+        <v>1.076931786110253</v>
       </c>
       <c r="E5">
-        <v>1.048361422738099</v>
+        <v>1.081363542114097</v>
       </c>
       <c r="F5">
-        <v>1.057683309457402</v>
+        <v>1.090519715901062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054334722640384</v>
+        <v>1.047056093813832</v>
       </c>
       <c r="J5">
-        <v>1.057023998062257</v>
+        <v>1.08282850911782</v>
       </c>
       <c r="K5">
-        <v>1.060460546462508</v>
+        <v>1.079266849327885</v>
       </c>
       <c r="L5">
-        <v>1.057698343036335</v>
+        <v>1.08368856206923</v>
       </c>
       <c r="M5">
-        <v>1.066923626533549</v>
+        <v>1.09282426265734</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039366189511999</v>
+        <v>1.078661314901923</v>
       </c>
       <c r="D6">
-        <v>1.051442849187945</v>
+        <v>1.076992373184148</v>
       </c>
       <c r="E6">
-        <v>1.04867850958139</v>
+        <v>1.081431381691099</v>
       </c>
       <c r="F6">
-        <v>1.05800994535861</v>
+        <v>1.090589627223858</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054437995842504</v>
+        <v>1.047073260701551</v>
       </c>
       <c r="J6">
-        <v>1.057312437814475</v>
+        <v>1.082889635092003</v>
       </c>
       <c r="K6">
-        <v>1.060712336443764</v>
+        <v>1.079318957298889</v>
       </c>
       <c r="L6">
-        <v>1.057976718032701</v>
+        <v>1.083747944920359</v>
       </c>
       <c r="M6">
-        <v>1.067211934567286</v>
+        <v>1.092885791741686</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036817622891488</v>
+        <v>1.078132485780691</v>
       </c>
       <c r="D7">
-        <v>1.049438005237212</v>
+        <v>1.076575616202676</v>
       </c>
       <c r="E7">
-        <v>1.046487305620915</v>
+        <v>1.080964784661053</v>
       </c>
       <c r="F7">
-        <v>1.055752771885975</v>
+        <v>1.090108783901477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053723043007156</v>
+        <v>1.046955039593173</v>
       </c>
       <c r="J7">
-        <v>1.055318457023506</v>
+        <v>1.082469146682579</v>
       </c>
       <c r="K7">
-        <v>1.058971426241669</v>
+        <v>1.078960459510462</v>
       </c>
       <c r="L7">
-        <v>1.056052441775022</v>
+        <v>1.083339455577029</v>
       </c>
       <c r="M7">
-        <v>1.065219048242378</v>
+        <v>1.092462544350638</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025821508848942</v>
+        <v>1.07591843469287</v>
       </c>
       <c r="D8">
-        <v>1.040790787128368</v>
+        <v>1.074829880262404</v>
       </c>
       <c r="E8">
-        <v>1.037044159538346</v>
+        <v>1.079011454528691</v>
       </c>
       <c r="F8">
-        <v>1.046025822134162</v>
+        <v>1.088095890916568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050609360111594</v>
+        <v>1.046456432520007</v>
       </c>
       <c r="J8">
-        <v>1.046706307851892</v>
+        <v>1.080707164773381</v>
       </c>
       <c r="K8">
-        <v>1.051445177848749</v>
+        <v>1.077457126699344</v>
       </c>
       <c r="L8">
-        <v>1.047744677146014</v>
+        <v>1.081627955129657</v>
       </c>
       <c r="M8">
-        <v>1.05661644873568</v>
+        <v>1.090689352983394</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004961182110095</v>
+        <v>1.072002585176689</v>
       </c>
       <c r="D9">
-        <v>1.024407832999933</v>
+        <v>1.071738989729476</v>
       </c>
       <c r="E9">
-        <v>1.019181506163676</v>
+        <v>1.075557440223384</v>
       </c>
       <c r="F9">
-        <v>1.027628558127372</v>
+        <v>1.084536847490893</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044595274101334</v>
+        <v>1.045560818173205</v>
       </c>
       <c r="J9">
-        <v>1.030339956465313</v>
+        <v>1.077585148644582</v>
       </c>
       <c r="K9">
-        <v>1.037116944216576</v>
+        <v>1.074789226581031</v>
       </c>
       <c r="L9">
-        <v>1.031970857904862</v>
+        <v>1.078596155686682</v>
       </c>
       <c r="M9">
-        <v>1.040288738953976</v>
+        <v>1.087548817532606</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9898452338278672</v>
+        <v>1.069381653465449</v>
       </c>
       <c r="D10">
-        <v>1.012562032934033</v>
+        <v>1.069668045167711</v>
       </c>
       <c r="E10">
-        <v>1.006282532773148</v>
+        <v>1.073246157110562</v>
       </c>
       <c r="F10">
-        <v>1.014345396423452</v>
+        <v>1.082155484694597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040169905469273</v>
+        <v>1.044952133548824</v>
       </c>
       <c r="J10">
-        <v>1.01846762189053</v>
+        <v>1.075491726565734</v>
       </c>
       <c r="K10">
-        <v>1.026708120677211</v>
+        <v>1.072997512694851</v>
       </c>
       <c r="L10">
-        <v>1.020539273141946</v>
+        <v>1.076563752887089</v>
       </c>
       <c r="M10">
-        <v>1.028460382454764</v>
+        <v>1.085443894222537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.982955949091454</v>
+        <v>1.068244151090147</v>
       </c>
       <c r="D11">
-        <v>1.007172222040079</v>
+        <v>1.06876874052649</v>
       </c>
       <c r="E11">
-        <v>1.000416842266809</v>
+        <v>1.072243183490083</v>
       </c>
       <c r="F11">
-        <v>1.008305533586836</v>
+        <v>1.081122148797083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038138502202155</v>
+        <v>1.044685773592074</v>
       </c>
       <c r="J11">
-        <v>1.013055381691772</v>
+        <v>1.074582268767457</v>
       </c>
       <c r="K11">
-        <v>1.021960136517415</v>
+        <v>1.072218469546641</v>
       </c>
       <c r="L11">
-        <v>1.015330901832354</v>
+        <v>1.075680930490794</v>
       </c>
       <c r="M11">
-        <v>1.023072501214444</v>
+        <v>1.084529660186259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9803394851373584</v>
+        <v>1.067821225061398</v>
       </c>
       <c r="D12">
-        <v>1.00512689255482</v>
+        <v>1.068434302959436</v>
       </c>
       <c r="E12">
-        <v>0.9981913582465228</v>
+        <v>1.071870297480896</v>
       </c>
       <c r="F12">
-        <v>1.006014056570497</v>
+        <v>1.080737982049439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037364975402232</v>
+        <v>1.044586412189103</v>
       </c>
       <c r="J12">
-        <v>1.010999866481944</v>
+        <v>1.074243995829714</v>
       </c>
       <c r="K12">
-        <v>1.020156524164854</v>
+        <v>1.071928605804064</v>
       </c>
       <c r="L12">
-        <v>1.013353291203394</v>
+        <v>1.075352583735224</v>
       </c>
       <c r="M12">
-        <v>1.021026936692512</v>
+        <v>1.084189644070814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9809034296490158</v>
+        <v>1.067911962759787</v>
       </c>
       <c r="D13">
-        <v>1.00556765685246</v>
+        <v>1.068506059014197</v>
       </c>
       <c r="E13">
-        <v>0.9986709270878273</v>
+        <v>1.071950298213142</v>
       </c>
       <c r="F13">
-        <v>1.006507842039147</v>
+        <v>1.080820402670567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037531787690994</v>
+        <v>1.044607744765544</v>
       </c>
       <c r="J13">
-        <v>1.011442903380463</v>
+        <v>1.074316577496773</v>
       </c>
       <c r="K13">
-        <v>1.020545282826673</v>
+        <v>1.071990804986172</v>
       </c>
       <c r="L13">
-        <v>1.013779514746376</v>
+        <v>1.075423034718709</v>
       </c>
       <c r="M13">
-        <v>1.021467796406839</v>
+        <v>1.084262598250924</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827408806806045</v>
+        <v>1.068209200271689</v>
       </c>
       <c r="D14">
-        <v>1.007004064510219</v>
+        <v>1.06874110394122</v>
       </c>
       <c r="E14">
-        <v>1.000233864901341</v>
+        <v>1.072212367551063</v>
       </c>
       <c r="F14">
-        <v>1.008117128470894</v>
+        <v>1.081090400447948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038074959840911</v>
+        <v>1.044677569006026</v>
       </c>
       <c r="J14">
-        <v>1.012886421395057</v>
+        <v>1.07455431646079</v>
       </c>
       <c r="K14">
-        <v>1.021811889467232</v>
+        <v>1.072194519415773</v>
       </c>
       <c r="L14">
-        <v>1.015168335293121</v>
+        <v>1.075653798017287</v>
       </c>
       <c r="M14">
-        <v>1.02290434436046</v>
+        <v>1.084501563155275</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9838651896704451</v>
+        <v>1.068392283786811</v>
       </c>
       <c r="D15">
-        <v>1.007883207310027</v>
+        <v>1.068885870151444</v>
       </c>
       <c r="E15">
-        <v>1.001190504300886</v>
+        <v>1.072373792154338</v>
       </c>
       <c r="F15">
-        <v>1.009102148828931</v>
+        <v>1.081256709641429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038407057772224</v>
+        <v>1.04472053380894</v>
       </c>
       <c r="J15">
-        <v>1.013769692420933</v>
+        <v>1.074700734043716</v>
       </c>
       <c r="K15">
-        <v>1.022586863362184</v>
+        <v>1.072319969083383</v>
       </c>
       <c r="L15">
-        <v>1.016018201361676</v>
+        <v>1.075795921998691</v>
       </c>
       <c r="M15">
-        <v>1.023783443951288</v>
+        <v>1.08464874018802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9902947310979471</v>
+        <v>1.069457089398969</v>
       </c>
       <c r="D16">
-        <v>1.012913906253617</v>
+        <v>1.069727674068462</v>
       </c>
       <c r="E16">
-        <v>1.00666553696678</v>
+        <v>1.073312674493368</v>
       </c>
       <c r="F16">
-        <v>1.014739785066219</v>
+        <v>1.082224016736908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040302159466654</v>
+        <v>1.044969751789146</v>
       </c>
       <c r="J16">
-        <v>1.018820736127813</v>
+        <v>1.075552020367404</v>
       </c>
       <c r="K16">
-        <v>1.027017841389462</v>
+        <v>1.073049146650222</v>
       </c>
       <c r="L16">
-        <v>1.020879149780181</v>
+        <v>1.076622283529602</v>
       </c>
       <c r="M16">
-        <v>1.028812000529283</v>
+        <v>1.085504509328316</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9942319000228145</v>
+        <v>1.070124302707439</v>
       </c>
       <c r="D17">
-        <v>1.015997031461441</v>
+        <v>1.070255020245219</v>
       </c>
       <c r="E17">
-        <v>1.010021797507113</v>
+        <v>1.073901021472304</v>
       </c>
       <c r="F17">
-        <v>1.018195868394637</v>
+        <v>1.082830189013911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041458966807893</v>
+        <v>1.045125328775189</v>
       </c>
       <c r="J17">
-        <v>1.021913556736304</v>
+        <v>1.076085201463149</v>
       </c>
       <c r="K17">
-        <v>1.029730270397354</v>
+        <v>1.073505672425775</v>
       </c>
       <c r="L17">
-        <v>1.023856360806866</v>
+        <v>1.077139887519965</v>
       </c>
       <c r="M17">
-        <v>1.031892206588998</v>
+        <v>1.086040557169958</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9964956308494173</v>
+        <v>1.070513224883639</v>
       </c>
       <c r="D18">
-        <v>1.01777054489171</v>
+        <v>1.070562364827341</v>
       </c>
       <c r="E18">
-        <v>1.011952741908295</v>
+        <v>1.074243985384741</v>
       </c>
       <c r="F18">
-        <v>1.020184292816047</v>
+        <v>1.083183548466898</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042122723867204</v>
+        <v>1.045215804709953</v>
       </c>
       <c r="J18">
-        <v>1.02369168589372</v>
+        <v>1.076395908968274</v>
       </c>
       <c r="K18">
-        <v>1.031289427193337</v>
+        <v>1.07377164617727</v>
       </c>
       <c r="L18">
-        <v>1.025568296439762</v>
+        <v>1.077441529742711</v>
       </c>
       <c r="M18">
-        <v>1.033663482890711</v>
+        <v>1.086352956449703</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9972621108144631</v>
+        <v>1.070645794936822</v>
       </c>
       <c r="D19">
-        <v>1.01837117376432</v>
+        <v>1.07066711968548</v>
       </c>
       <c r="E19">
-        <v>1.012606742479595</v>
+        <v>1.074360892094787</v>
       </c>
       <c r="F19">
-        <v>1.02085776969124</v>
+        <v>1.083303999514134</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04234723055485</v>
+        <v>1.045246609059738</v>
       </c>
       <c r="J19">
-        <v>1.024293718111052</v>
+        <v>1.076501803656188</v>
       </c>
       <c r="K19">
-        <v>1.031817271861359</v>
+        <v>1.073862284034348</v>
       </c>
       <c r="L19">
-        <v>1.02614796245277</v>
+        <v>1.077544336878928</v>
       </c>
       <c r="M19">
-        <v>1.034263261255979</v>
+        <v>1.086459431312994</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9938129059173194</v>
+        <v>1.070052743200398</v>
       </c>
       <c r="D20">
-        <v>1.015668836863499</v>
+        <v>1.070198466661256</v>
       </c>
       <c r="E20">
-        <v>1.009664495723375</v>
+        <v>1.073837919095829</v>
       </c>
       <c r="F20">
-        <v>1.01782793445457</v>
+        <v>1.082765174324465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041336000230538</v>
+        <v>1.045108664736536</v>
       </c>
       <c r="J20">
-        <v>1.02158443083196</v>
+        <v>1.076028026041801</v>
       </c>
       <c r="K20">
-        <v>1.029441652680464</v>
+        <v>1.07345672365985</v>
       </c>
       <c r="L20">
-        <v>1.023539509007891</v>
+        <v>1.077084381242275</v>
       </c>
       <c r="M20">
-        <v>1.03156438117994</v>
+        <v>1.085983072139223</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9822014349643193</v>
+        <v>1.068121682574053</v>
       </c>
       <c r="D21">
-        <v>1.00658231071145</v>
+        <v>1.068671900069764</v>
       </c>
       <c r="E21">
-        <v>0.9997749483745429</v>
+        <v>1.07213520404931</v>
       </c>
       <c r="F21">
-        <v>1.007644600336516</v>
+        <v>1.081010902298604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037915547613351</v>
+        <v>1.044657019224952</v>
       </c>
       <c r="J21">
-        <v>1.012462626853557</v>
+        <v>1.074484321037545</v>
       </c>
       <c r="K21">
-        <v>1.021440043114739</v>
+        <v>1.072134544258118</v>
       </c>
       <c r="L21">
-        <v>1.014760585682854</v>
+        <v>1.0755858558494</v>
       </c>
       <c r="M21">
-        <v>1.022482576478485</v>
+        <v>1.084431205866922</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9745647143132284</v>
+        <v>1.066905186755777</v>
       </c>
       <c r="D22">
-        <v>1.000616081578722</v>
+        <v>1.067709792487276</v>
       </c>
       <c r="E22">
-        <v>0.9932839504019094</v>
+        <v>1.071062684757618</v>
       </c>
       <c r="F22">
-        <v>1.000961303695767</v>
+        <v>1.079905950555697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03565417533715</v>
+        <v>1.044370600043724</v>
       </c>
       <c r="J22">
-        <v>1.006463353129266</v>
+        <v>1.073511066912109</v>
       </c>
       <c r="K22">
-        <v>1.016175343644501</v>
+        <v>1.071300384131476</v>
       </c>
       <c r="L22">
-        <v>1.008989638026258</v>
+        <v>1.074641196853811</v>
       </c>
       <c r="M22">
-        <v>1.016513740996065</v>
+        <v>1.083452999528733</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9786471332046962</v>
+        <v>1.06755030244752</v>
       </c>
       <c r="D23">
-        <v>1.003804461586729</v>
+        <v>1.068220044570811</v>
       </c>
       <c r="E23">
-        <v>0.9967525594443271</v>
+        <v>1.071631436350124</v>
       </c>
       <c r="F23">
-        <v>1.004532618994531</v>
+        <v>1.080491896850685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036864101027061</v>
+        <v>1.044522669830758</v>
       </c>
       <c r="J23">
-        <v>1.009670361520843</v>
+        <v>1.074027263451748</v>
       </c>
       <c r="K23">
-        <v>1.018989852547737</v>
+        <v>1.071742861624718</v>
       </c>
       <c r="L23">
-        <v>1.012074314205372</v>
+        <v>1.075142216495939</v>
       </c>
       <c r="M23">
-        <v>1.019704072163781</v>
+        <v>1.083971804252531</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9940023321076328</v>
+        <v>1.07008507864028</v>
       </c>
       <c r="D24">
-        <v>1.01581721027253</v>
+        <v>1.070224021556484</v>
       </c>
       <c r="E24">
-        <v>1.009826027209466</v>
+        <v>1.073866432989238</v>
       </c>
       <c r="F24">
-        <v>1.017994272447388</v>
+        <v>1.082794552314911</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041391597370206</v>
+        <v>1.045116195331064</v>
       </c>
       <c r="J24">
-        <v>1.021733228254825</v>
+        <v>1.076053862043631</v>
       </c>
       <c r="K24">
-        <v>1.029572137266711</v>
+        <v>1.073478842458202</v>
       </c>
       <c r="L24">
-        <v>1.023682756476577</v>
+        <v>1.077109462966353</v>
       </c>
       <c r="M24">
-        <v>1.031712589412053</v>
+        <v>1.086009047979511</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010549980793136</v>
+        <v>1.073016703076373</v>
       </c>
       <c r="D25">
-        <v>1.02879357679333</v>
+        <v>1.072539847956031</v>
       </c>
       <c r="E25">
-        <v>1.023960337280426</v>
+        <v>1.076451862814411</v>
       </c>
       <c r="F25">
-        <v>1.032550124845703</v>
+        <v>1.085458432361665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046218395718874</v>
+        <v>1.04579438906082</v>
       </c>
       <c r="J25">
-        <v>1.034727438616056</v>
+        <v>1.078394354501358</v>
       </c>
       <c r="K25">
-        <v>1.040960767902674</v>
+        <v>1.075481220890121</v>
       </c>
       <c r="L25">
-        <v>1.036197747248729</v>
+        <v>1.079381886122286</v>
       </c>
       <c r="M25">
-        <v>1.044663314377735</v>
+        <v>1.088362663312961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075347494238983</v>
+        <v>1.022896818592953</v>
       </c>
       <c r="D2">
-        <v>1.074379477558459</v>
+        <v>1.038491900466583</v>
       </c>
       <c r="E2">
-        <v>1.078507792967299</v>
+        <v>1.034535610651111</v>
       </c>
       <c r="F2">
-        <v>1.087576891009372</v>
+        <v>1.043442017631605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046326922860092</v>
+        <v>1.04977397582132</v>
       </c>
       <c r="J2">
-        <v>1.080252411879709</v>
+        <v>1.044413610928615</v>
       </c>
       <c r="K2">
-        <v>1.077068845344237</v>
+        <v>1.049439815026935</v>
       </c>
       <c r="L2">
-        <v>1.081186282913323</v>
+        <v>1.045533896514128</v>
       </c>
       <c r="M2">
-        <v>1.090231797435664</v>
+        <v>1.054327578293614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077035760507893</v>
+        <v>1.031437866986056</v>
       </c>
       <c r="D3">
-        <v>1.075711047986396</v>
+        <v>1.045206738441855</v>
       </c>
       <c r="E3">
-        <v>1.079997171536834</v>
+        <v>1.041865056340946</v>
       </c>
       <c r="F3">
-        <v>1.089111649988354</v>
+        <v>1.05099150493494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046708783593401</v>
+        <v>1.052205315212396</v>
       </c>
       <c r="J3">
-        <v>1.081596655948686</v>
+        <v>1.051106708394793</v>
       </c>
       <c r="K3">
-        <v>1.078216266905025</v>
+        <v>1.055292106883698</v>
       </c>
       <c r="L3">
-        <v>1.082491921752737</v>
+        <v>1.051988886712435</v>
       </c>
       <c r="M3">
-        <v>1.091584432683649</v>
+        <v>1.061011004860698</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07812636344143</v>
+        <v>1.036787946715084</v>
       </c>
       <c r="D4">
-        <v>1.076570790845498</v>
+        <v>1.049414661487303</v>
       </c>
       <c r="E4">
-        <v>1.080959382884945</v>
+        <v>1.046461796285732</v>
       </c>
       <c r="F4">
-        <v>1.090103217238498</v>
+        <v>1.0557264948086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046953668928187</v>
+        <v>1.053714702141129</v>
       </c>
       <c r="J4">
-        <v>1.08246427778631</v>
+        <v>1.055295233584615</v>
       </c>
       <c r="K4">
-        <v>1.078956307803063</v>
+        <v>1.058951146335662</v>
       </c>
       <c r="L4">
-        <v>1.083334725729606</v>
+        <v>1.056030031910316</v>
       </c>
       <c r="M4">
-        <v>1.092457643699512</v>
+        <v>1.065195840072904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07858442836955</v>
+        <v>1.038997457536984</v>
       </c>
       <c r="D5">
-        <v>1.076931786110253</v>
+        <v>1.051152772509691</v>
       </c>
       <c r="E5">
-        <v>1.081363542114097</v>
+        <v>1.0483614227381</v>
       </c>
       <c r="F5">
-        <v>1.090519715901062</v>
+        <v>1.057683309457402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047056093813832</v>
+        <v>1.054334722640384</v>
       </c>
       <c r="J5">
-        <v>1.08282850911782</v>
+        <v>1.057023998062258</v>
       </c>
       <c r="K5">
-        <v>1.079266849327885</v>
+        <v>1.060460546462508</v>
       </c>
       <c r="L5">
-        <v>1.08368856206923</v>
+        <v>1.057698343036336</v>
       </c>
       <c r="M5">
-        <v>1.09282426265734</v>
+        <v>1.066923626533549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078661314901923</v>
+        <v>1.039366189511998</v>
       </c>
       <c r="D6">
-        <v>1.076992373184148</v>
+        <v>1.051442849187944</v>
       </c>
       <c r="E6">
-        <v>1.081431381691099</v>
+        <v>1.04867850958139</v>
       </c>
       <c r="F6">
-        <v>1.090589627223858</v>
+        <v>1.058009945358609</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047073260701551</v>
+        <v>1.054437995842504</v>
       </c>
       <c r="J6">
-        <v>1.082889635092003</v>
+        <v>1.057312437814474</v>
       </c>
       <c r="K6">
-        <v>1.079318957298889</v>
+        <v>1.060712336443763</v>
       </c>
       <c r="L6">
-        <v>1.083747944920359</v>
+        <v>1.0579767180327</v>
       </c>
       <c r="M6">
-        <v>1.092885791741686</v>
+        <v>1.067211934567285</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078132485780691</v>
+        <v>1.036817622891488</v>
       </c>
       <c r="D7">
-        <v>1.076575616202676</v>
+        <v>1.049438005237212</v>
       </c>
       <c r="E7">
-        <v>1.080964784661053</v>
+        <v>1.046487305620914</v>
       </c>
       <c r="F7">
-        <v>1.090108783901477</v>
+        <v>1.055752771885974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046955039593173</v>
+        <v>1.053723043007155</v>
       </c>
       <c r="J7">
-        <v>1.082469146682579</v>
+        <v>1.055318457023506</v>
       </c>
       <c r="K7">
-        <v>1.078960459510462</v>
+        <v>1.058971426241668</v>
       </c>
       <c r="L7">
-        <v>1.083339455577029</v>
+        <v>1.056052441775022</v>
       </c>
       <c r="M7">
-        <v>1.092462544350638</v>
+        <v>1.065219048242378</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.07591843469287</v>
+        <v>1.025821508848944</v>
       </c>
       <c r="D8">
-        <v>1.074829880262404</v>
+        <v>1.040790787128371</v>
       </c>
       <c r="E8">
-        <v>1.079011454528691</v>
+        <v>1.037044159538348</v>
       </c>
       <c r="F8">
-        <v>1.088095890916568</v>
+        <v>1.046025822134163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046456432520007</v>
+        <v>1.050609360111595</v>
       </c>
       <c r="J8">
-        <v>1.080707164773381</v>
+        <v>1.046706307851895</v>
       </c>
       <c r="K8">
-        <v>1.077457126699344</v>
+        <v>1.051445177848751</v>
       </c>
       <c r="L8">
-        <v>1.081627955129657</v>
+        <v>1.047744677146016</v>
       </c>
       <c r="M8">
-        <v>1.090689352983394</v>
+        <v>1.056616448735682</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072002585176689</v>
+        <v>1.004961182110093</v>
       </c>
       <c r="D9">
-        <v>1.071738989729476</v>
+        <v>1.024407832999931</v>
       </c>
       <c r="E9">
-        <v>1.075557440223384</v>
+        <v>1.019181506163675</v>
       </c>
       <c r="F9">
-        <v>1.084536847490893</v>
+        <v>1.02762855812737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045560818173205</v>
+        <v>1.044595274101334</v>
       </c>
       <c r="J9">
-        <v>1.077585148644582</v>
+        <v>1.030339956465312</v>
       </c>
       <c r="K9">
-        <v>1.074789226581031</v>
+        <v>1.037116944216574</v>
       </c>
       <c r="L9">
-        <v>1.078596155686682</v>
+        <v>1.03197085790486</v>
       </c>
       <c r="M9">
-        <v>1.087548817532606</v>
+        <v>1.040288738953974</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069381653465449</v>
+        <v>0.9898452338278686</v>
       </c>
       <c r="D10">
-        <v>1.069668045167711</v>
+        <v>1.012562032934034</v>
       </c>
       <c r="E10">
-        <v>1.073246157110562</v>
+        <v>1.006282532773149</v>
       </c>
       <c r="F10">
-        <v>1.082155484694597</v>
+        <v>1.014345396423453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044952133548824</v>
+        <v>1.040169905469273</v>
       </c>
       <c r="J10">
-        <v>1.075491726565734</v>
+        <v>1.018467621890531</v>
       </c>
       <c r="K10">
-        <v>1.072997512694851</v>
+        <v>1.026708120677213</v>
       </c>
       <c r="L10">
-        <v>1.076563752887089</v>
+        <v>1.020539273141947</v>
       </c>
       <c r="M10">
-        <v>1.085443894222537</v>
+        <v>1.028460382454765</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068244151090147</v>
+        <v>0.982955949091457</v>
       </c>
       <c r="D11">
-        <v>1.06876874052649</v>
+        <v>1.007172222040081</v>
       </c>
       <c r="E11">
-        <v>1.072243183490083</v>
+        <v>1.000416842266812</v>
       </c>
       <c r="F11">
-        <v>1.081122148797083</v>
+        <v>1.008305533586839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044685773592074</v>
+        <v>1.038138502202156</v>
       </c>
       <c r="J11">
-        <v>1.074582268767457</v>
+        <v>1.013055381691775</v>
       </c>
       <c r="K11">
-        <v>1.072218469546641</v>
+        <v>1.021960136517417</v>
       </c>
       <c r="L11">
-        <v>1.075680930490794</v>
+        <v>1.015330901832357</v>
       </c>
       <c r="M11">
-        <v>1.084529660186259</v>
+        <v>1.023072501214447</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067821225061398</v>
+        <v>0.9803394851373591</v>
       </c>
       <c r="D12">
-        <v>1.068434302959436</v>
+        <v>1.00512689255482</v>
       </c>
       <c r="E12">
-        <v>1.071870297480896</v>
+        <v>0.9981913582465235</v>
       </c>
       <c r="F12">
-        <v>1.080737982049439</v>
+        <v>1.006014056570497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044586412189103</v>
+        <v>1.037364975402232</v>
       </c>
       <c r="J12">
-        <v>1.074243995829714</v>
+        <v>1.010999866481945</v>
       </c>
       <c r="K12">
-        <v>1.071928605804064</v>
+        <v>1.020156524164854</v>
       </c>
       <c r="L12">
-        <v>1.075352583735224</v>
+        <v>1.013353291203394</v>
       </c>
       <c r="M12">
-        <v>1.084189644070814</v>
+        <v>1.021026936692513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067911962759787</v>
+        <v>0.980903429649014</v>
       </c>
       <c r="D13">
-        <v>1.068506059014197</v>
+        <v>1.005567656852458</v>
       </c>
       <c r="E13">
-        <v>1.071950298213142</v>
+        <v>0.9986709270878259</v>
       </c>
       <c r="F13">
-        <v>1.080820402670567</v>
+        <v>1.006507842039145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044607744765544</v>
+        <v>1.037531787690994</v>
       </c>
       <c r="J13">
-        <v>1.074316577496773</v>
+        <v>1.011442903380461</v>
       </c>
       <c r="K13">
-        <v>1.071990804986172</v>
+        <v>1.020545282826671</v>
       </c>
       <c r="L13">
-        <v>1.075423034718709</v>
+        <v>1.013779514746375</v>
       </c>
       <c r="M13">
-        <v>1.084262598250924</v>
+        <v>1.021467796406837</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.068209200271689</v>
+        <v>0.9827408806806043</v>
       </c>
       <c r="D14">
-        <v>1.06874110394122</v>
+        <v>1.007004064510219</v>
       </c>
       <c r="E14">
-        <v>1.072212367551063</v>
+        <v>1.000233864901341</v>
       </c>
       <c r="F14">
-        <v>1.081090400447948</v>
+        <v>1.008117128470893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044677569006026</v>
+        <v>1.038074959840911</v>
       </c>
       <c r="J14">
-        <v>1.07455431646079</v>
+        <v>1.012886421395057</v>
       </c>
       <c r="K14">
-        <v>1.072194519415773</v>
+        <v>1.021811889467231</v>
       </c>
       <c r="L14">
-        <v>1.075653798017287</v>
+        <v>1.01516833529312</v>
       </c>
       <c r="M14">
-        <v>1.084501563155275</v>
+        <v>1.022904344360459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068392283786811</v>
+        <v>0.9838651896704456</v>
       </c>
       <c r="D15">
-        <v>1.068885870151444</v>
+        <v>1.007883207310028</v>
       </c>
       <c r="E15">
-        <v>1.072373792154338</v>
+        <v>1.001190504300886</v>
       </c>
       <c r="F15">
-        <v>1.081256709641429</v>
+        <v>1.009102148828932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04472053380894</v>
+        <v>1.038407057772224</v>
       </c>
       <c r="J15">
-        <v>1.074700734043716</v>
+        <v>1.013769692420933</v>
       </c>
       <c r="K15">
-        <v>1.072319969083383</v>
+        <v>1.022586863362184</v>
       </c>
       <c r="L15">
-        <v>1.075795921998691</v>
+        <v>1.016018201361676</v>
       </c>
       <c r="M15">
-        <v>1.08464874018802</v>
+        <v>1.023783443951289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069457089398969</v>
+        <v>0.9902947310979507</v>
       </c>
       <c r="D16">
-        <v>1.069727674068462</v>
+        <v>1.01291390625362</v>
       </c>
       <c r="E16">
-        <v>1.073312674493368</v>
+        <v>1.006665536966784</v>
       </c>
       <c r="F16">
-        <v>1.082224016736908</v>
+        <v>1.014739785066222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044969751789146</v>
+        <v>1.040302159466655</v>
       </c>
       <c r="J16">
-        <v>1.075552020367404</v>
+        <v>1.018820736127817</v>
       </c>
       <c r="K16">
-        <v>1.073049146650222</v>
+        <v>1.027017841389465</v>
       </c>
       <c r="L16">
-        <v>1.076622283529602</v>
+        <v>1.020879149780184</v>
       </c>
       <c r="M16">
-        <v>1.085504509328316</v>
+        <v>1.028812000529286</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070124302707439</v>
+        <v>0.994231900022812</v>
       </c>
       <c r="D17">
-        <v>1.070255020245219</v>
+        <v>1.015997031461439</v>
       </c>
       <c r="E17">
-        <v>1.073901021472304</v>
+        <v>1.01002179750711</v>
       </c>
       <c r="F17">
-        <v>1.082830189013911</v>
+        <v>1.018195868394635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045125328775189</v>
+        <v>1.041458966807892</v>
       </c>
       <c r="J17">
-        <v>1.076085201463149</v>
+        <v>1.021913556736302</v>
       </c>
       <c r="K17">
-        <v>1.073505672425775</v>
+        <v>1.029730270397352</v>
       </c>
       <c r="L17">
-        <v>1.077139887519965</v>
+        <v>1.023856360806863</v>
       </c>
       <c r="M17">
-        <v>1.086040557169958</v>
+        <v>1.031892206588996</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070513224883639</v>
+        <v>0.9964956308494157</v>
       </c>
       <c r="D18">
-        <v>1.070562364827341</v>
+        <v>1.017770544891708</v>
       </c>
       <c r="E18">
-        <v>1.074243985384741</v>
+        <v>1.011952741908293</v>
       </c>
       <c r="F18">
-        <v>1.083183548466898</v>
+        <v>1.020184292816045</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045215804709953</v>
+        <v>1.042122723867203</v>
       </c>
       <c r="J18">
-        <v>1.076395908968274</v>
+        <v>1.023691685893718</v>
       </c>
       <c r="K18">
-        <v>1.07377164617727</v>
+        <v>1.031289427193336</v>
       </c>
       <c r="L18">
-        <v>1.077441529742711</v>
+        <v>1.02556829643976</v>
       </c>
       <c r="M18">
-        <v>1.086352956449703</v>
+        <v>1.033663482890709</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070645794936822</v>
+        <v>0.9972621108144645</v>
       </c>
       <c r="D19">
-        <v>1.07066711968548</v>
+        <v>1.01837117376432</v>
       </c>
       <c r="E19">
-        <v>1.074360892094787</v>
+        <v>1.012606742479596</v>
       </c>
       <c r="F19">
-        <v>1.083303999514134</v>
+        <v>1.020857769691241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045246609059738</v>
+        <v>1.042347230554851</v>
       </c>
       <c r="J19">
-        <v>1.076501803656188</v>
+        <v>1.024293718111053</v>
       </c>
       <c r="K19">
-        <v>1.073862284034348</v>
+        <v>1.03181727186136</v>
       </c>
       <c r="L19">
-        <v>1.077544336878928</v>
+        <v>1.026147962452771</v>
       </c>
       <c r="M19">
-        <v>1.086459431312994</v>
+        <v>1.034263261255981</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.070052743200398</v>
+        <v>0.9938129059173199</v>
       </c>
       <c r="D20">
-        <v>1.070198466661256</v>
+        <v>1.015668836863499</v>
       </c>
       <c r="E20">
-        <v>1.073837919095829</v>
+        <v>1.009664495723375</v>
       </c>
       <c r="F20">
-        <v>1.082765174324465</v>
+        <v>1.01782793445457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045108664736536</v>
+        <v>1.041336000230538</v>
       </c>
       <c r="J20">
-        <v>1.076028026041801</v>
+        <v>1.02158443083196</v>
       </c>
       <c r="K20">
-        <v>1.07345672365985</v>
+        <v>1.029441652680464</v>
       </c>
       <c r="L20">
-        <v>1.077084381242275</v>
+        <v>1.023539509007891</v>
       </c>
       <c r="M20">
-        <v>1.085983072139223</v>
+        <v>1.031564381179941</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068121682574053</v>
+        <v>0.9822014349643176</v>
       </c>
       <c r="D21">
-        <v>1.068671900069764</v>
+        <v>1.006582310711449</v>
       </c>
       <c r="E21">
-        <v>1.07213520404931</v>
+        <v>0.9997749483745412</v>
       </c>
       <c r="F21">
-        <v>1.081010902298604</v>
+        <v>1.007644600336514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044657019224952</v>
+        <v>1.03791554761335</v>
       </c>
       <c r="J21">
-        <v>1.074484321037545</v>
+        <v>1.012462626853556</v>
       </c>
       <c r="K21">
-        <v>1.072134544258118</v>
+        <v>1.021440043114738</v>
       </c>
       <c r="L21">
-        <v>1.0755858558494</v>
+        <v>1.014760585682853</v>
       </c>
       <c r="M21">
-        <v>1.084431205866922</v>
+        <v>1.022482576478483</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066905186755777</v>
+        <v>0.9745647143132269</v>
       </c>
       <c r="D22">
-        <v>1.067709792487276</v>
+        <v>1.000616081578721</v>
       </c>
       <c r="E22">
-        <v>1.071062684757618</v>
+        <v>0.9932839504019079</v>
       </c>
       <c r="F22">
-        <v>1.079905950555697</v>
+        <v>1.000961303695764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044370600043724</v>
+        <v>1.035654175337149</v>
       </c>
       <c r="J22">
-        <v>1.073511066912109</v>
+        <v>1.006463353129265</v>
       </c>
       <c r="K22">
-        <v>1.071300384131476</v>
+        <v>1.016175343644499</v>
       </c>
       <c r="L22">
-        <v>1.074641196853811</v>
+        <v>1.008989638026256</v>
       </c>
       <c r="M22">
-        <v>1.083452999528733</v>
+        <v>1.016513740996063</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06755030244752</v>
+        <v>0.9786471332046953</v>
       </c>
       <c r="D23">
-        <v>1.068220044570811</v>
+        <v>1.003804461586729</v>
       </c>
       <c r="E23">
-        <v>1.071631436350124</v>
+        <v>0.9967525594443259</v>
       </c>
       <c r="F23">
-        <v>1.080491896850685</v>
+        <v>1.004532618994531</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044522669830758</v>
+        <v>1.03686410102706</v>
       </c>
       <c r="J23">
-        <v>1.074027263451748</v>
+        <v>1.009670361520842</v>
       </c>
       <c r="K23">
-        <v>1.071742861624718</v>
+        <v>1.018989852547737</v>
       </c>
       <c r="L23">
-        <v>1.075142216495939</v>
+        <v>1.012074314205371</v>
       </c>
       <c r="M23">
-        <v>1.083971804252531</v>
+        <v>1.01970407216378</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.07008507864028</v>
+        <v>0.9940023321076332</v>
       </c>
       <c r="D24">
-        <v>1.070224021556484</v>
+        <v>1.01581721027253</v>
       </c>
       <c r="E24">
-        <v>1.073866432989238</v>
+        <v>1.009826027209467</v>
       </c>
       <c r="F24">
-        <v>1.082794552314911</v>
+        <v>1.017994272447389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045116195331064</v>
+        <v>1.041391597370206</v>
       </c>
       <c r="J24">
-        <v>1.076053862043631</v>
+        <v>1.021733228254825</v>
       </c>
       <c r="K24">
-        <v>1.073478842458202</v>
+        <v>1.029572137266711</v>
       </c>
       <c r="L24">
-        <v>1.077109462966353</v>
+        <v>1.023682756476577</v>
       </c>
       <c r="M24">
-        <v>1.086009047979511</v>
+        <v>1.031712589412054</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073016703076373</v>
+        <v>1.010549980793135</v>
       </c>
       <c r="D25">
-        <v>1.072539847956031</v>
+        <v>1.02879357679333</v>
       </c>
       <c r="E25">
-        <v>1.076451862814411</v>
+        <v>1.023960337280425</v>
       </c>
       <c r="F25">
-        <v>1.085458432361665</v>
+        <v>1.032550124845703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04579438906082</v>
+        <v>1.046218395718874</v>
       </c>
       <c r="J25">
-        <v>1.078394354501358</v>
+        <v>1.034727438616055</v>
       </c>
       <c r="K25">
-        <v>1.075481220890121</v>
+        <v>1.040960767902674</v>
       </c>
       <c r="L25">
-        <v>1.079381886122286</v>
+        <v>1.036197747248728</v>
       </c>
       <c r="M25">
-        <v>1.088362663312961</v>
+        <v>1.044663314377735</v>
       </c>
     </row>
   </sheetData>
